--- a/DaySale_2025-05-27_23-00.xlsx
+++ b/DaySale_2025-05-27_23-00.xlsx
@@ -200,6 +200,18 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -366,9 +378,6 @@
   </si>
   <si>
     <t>DURICEF 500MG 12 CAPS.</t>
-  </si>
-  <si>
-    <t>72.00</t>
   </si>
   <si>
     <t>72.0000</t>
@@ -1932,7 +1941,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1948,7 +1957,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1958,11 +1967,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>38</v>
@@ -1974,14 +1983,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1991,14 +2000,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2007,7 +2016,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2024,11 +2033,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2040,14 +2049,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2057,11 +2066,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2073,14 +2082,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2090,11 +2099,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2106,14 +2115,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2123,11 +2132,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2139,14 +2148,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2156,11 +2165,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2172,14 +2181,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2189,11 +2198,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2205,7 +2214,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2222,11 +2231,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2238,7 +2247,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2255,11 +2264,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2271,31 +2280,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2304,31 +2313,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2337,14 +2346,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2354,14 +2363,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2370,14 +2379,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2387,14 +2396,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2420,14 +2429,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2443,7 +2452,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2453,14 +2462,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2469,7 +2478,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2486,14 +2495,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2502,14 +2511,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2519,11 +2528,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>38</v>
@@ -2535,14 +2544,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2552,11 +2561,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>38</v>
@@ -2568,14 +2577,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2585,14 +2594,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2601,14 +2610,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2618,11 +2627,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2634,14 +2643,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2651,11 +2660,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2674,7 +2683,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2691,7 +2700,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2707,7 +2716,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2740,24 +2749,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2766,31 +2775,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>136</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2806,7 +2815,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2820,10 +2829,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>139</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>38</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2839,7 +2848,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2849,11 +2858,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>38</v>
@@ -2865,14 +2874,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2882,14 +2891,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2898,14 +2907,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2922,7 +2931,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2955,7 +2964,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2971,7 +2980,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2988,7 +2997,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3004,7 +3013,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3037,7 +3046,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3051,10 +3060,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3063,14 +3072,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3080,14 +3089,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3096,14 +3105,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3113,11 +3122,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3136,13 +3145,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3175,7 +3184,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3208,7 +3217,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3219,7 +3228,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3235,7 +3244,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3245,14 +3254,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3261,28 +3270,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3294,14 +3303,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3311,14 +3320,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>183</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3327,14 +3336,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3344,14 +3353,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>186</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3367,7 +3376,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3377,14 +3386,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3393,14 +3402,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3410,14 +3419,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3426,14 +3435,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3443,14 +3452,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3459,14 +3468,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3476,7 +3485,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3499,21 +3508,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>38</v>
@@ -3525,31 +3534,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3558,14 +3567,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3575,14 +3584,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3591,14 +3600,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3608,14 +3617,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3624,14 +3633,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3641,11 +3650,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3657,7 +3666,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3674,11 +3683,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>69</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3714,7 +3723,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3730,7 +3739,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3740,14 +3749,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>136</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3756,14 +3765,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3780,7 +3789,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3796,7 +3805,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3813,7 +3822,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3829,7 +3838,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3839,14 +3848,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>71</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3855,14 +3864,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3872,14 +3881,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3888,14 +3897,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3905,11 +3914,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3928,7 +3937,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3945,7 +3954,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3961,7 +3970,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3971,14 +3980,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3987,14 +3996,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4004,14 +4013,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>46</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4020,14 +4029,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4037,14 +4046,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4053,14 +4062,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4070,11 +4079,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4086,14 +4095,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4103,14 +4112,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4119,14 +4128,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4136,14 +4145,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>127</v>
+        <v>219</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4152,14 +4161,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4169,14 +4178,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4192,7 +4201,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4202,14 +4211,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>40</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4218,31 +4227,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4251,14 +4260,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4268,11 +4277,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4284,14 +4293,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4305,10 +4314,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4317,7 +4326,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4334,14 +4343,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>261</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4367,14 +4376,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>236</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4383,14 +4392,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4400,14 +4409,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4416,14 +4425,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4433,7 +4442,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4456,7 +4465,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4466,11 +4475,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4482,14 +4491,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4499,11 +4508,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4515,14 +4524,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>273</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4532,11 +4541,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4548,14 +4557,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4565,11 +4574,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4581,14 +4590,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4598,49 +4607,82 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>5205.8199999999997</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>278</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
         <v>279</v>
       </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>12</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>57</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>145</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
         <v>280</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5221.6599999999999</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>281</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>282</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>283</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5124,10 +5166,15 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
